--- a/target/classes/api.xlsx
+++ b/target/classes/api.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jarvan\Desktop\svn\trunk\apiFrame\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="6465" windowWidth="21450" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="api_info" r:id="rId1" sheetId="1"/>
-    <sheet name="request_data" r:id="rId2" sheetId="2"/>
+    <sheet name="api_info" sheetId="1" r:id="rId1"/>
+    <sheet name="request_data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">request_data!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">request_data!$A$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -508,7 +508,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,79 +563,79 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -653,10 +652,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -691,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,7 +813,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -823,13 +822,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -839,7 +838,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -848,7 +847,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -857,7 +856,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -867,12 +866,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -903,7 +902,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -922,7 +921,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -934,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -943,14 +942,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="17.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="22.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="17.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="73.5" collapsed="true"/>
-    <col min="5" max="16384" style="6" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="17.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="28.15" r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1149,40 +1148,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D7"/>
-    <hyperlink r:id="rId2" ref="D6"/>
-    <hyperlink display="http://120.79.150.210:8080/futureloan/mvc/api/member/register" r:id="rId3" ref="D2"/>
-    <hyperlink display="http://120.79.150.210:8080/futureloan/mvc/api/member/login" r:id="rId4" ref="D3"/>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3" display="http://120.79.150.210:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="D3" r:id="rId4" display="http://120.79.150.210:8080/futureloan/mvc/api/member/login"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="70">
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="7.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="13.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="24.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="51.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="50.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="34.5" collapsed="true"/>
-    <col min="7" max="7" style="1" width="31.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="21.625" collapsed="true"/>
-    <col min="9" max="9" style="1" width="31.75" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="23.25" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="31.75" collapsed="true"/>
+    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" style="1"/>
+    <col min="8" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="1"/>
+    <col min="10" max="10" width="23.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="31.75" style="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="31.15" r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="108" r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1239,7 @@
       </c>
       <c r="J2" s="10"/>
     </row>
-    <row ht="81" r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1263,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="10"/>
     </row>
-    <row ht="27" r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1285,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="10"/>
     </row>
-    <row ht="27" r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1308,7 +1307,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="10"/>
     </row>
-    <row ht="27" r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1330,7 +1329,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="10"/>
     </row>
-    <row ht="27" r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="10"/>
     </row>
-    <row ht="27" r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="10"/>
     </row>
-    <row ht="27" r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1396,7 +1395,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="10"/>
     </row>
-    <row ht="27" r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1417,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row ht="27" r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1439,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="10"/>
     </row>
-    <row ht="27" r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1462,7 +1461,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
     </row>
-    <row ht="27" r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1484,7 +1483,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="10"/>
     </row>
-    <row ht="27" r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1506,7 +1505,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="10"/>
     </row>
-    <row ht="67.5" r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row ht="27" r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -1554,7 +1553,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
     </row>
-    <row ht="27" r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1576,7 +1575,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
     </row>
-    <row ht="27" r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1598,7 +1597,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="10"/>
     </row>
-    <row ht="27" r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1620,7 +1619,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="10"/>
     </row>
-    <row ht="27" r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1642,7 +1641,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="10"/>
     </row>
-    <row ht="27" r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1664,7 +1663,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="10"/>
     </row>
-    <row ht="27" r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1686,7 +1685,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="10"/>
     </row>
-    <row ht="54" r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -1708,7 +1707,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="10"/>
     </row>
-    <row ht="54" r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -1732,7 +1731,7 @@
       </c>
       <c r="J24" s="10"/>
     </row>
-    <row ht="162" r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="162" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -1756,7 +1755,7 @@
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row ht="67.5" r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1780,7 +1779,7 @@
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row ht="67.5" r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -1804,7 +1803,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row ht="54" r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -1828,7 +1827,7 @@
       </c>
       <c r="J28" s="10"/>
     </row>
-    <row ht="256.5" r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -1857,7 +1856,7 @@
   </sheetData>
   <autoFilter ref="A1:E12"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>